--- a/CVS Files/01.08.22/new Gold standards.xlsx
+++ b/CVS Files/01.08.22/new Gold standards.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CVS Files\01.08.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53EE132B-82A7-4715-87FB-17FC5EC652AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C67BD-D852-4324-B762-23ED6BDB5C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -446,7 +446,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/CVS Files/01.08.22/new Gold standards.xlsx
+++ b/CVS Files/01.08.22/new Gold standards.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\USERS-Load\PycharmProjects\pythonProject\CVS Files\01.08.22\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245C67BD-D852-4324-B762-23ED6BDB5C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A3C714A-7F4C-4BAD-B25D-64C694292972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
   <si>
     <t>Gold standard</t>
   </si>
@@ -73,12 +73,6 @@
     <t>Ads Can influence children badly because the children always want to buy the products they see on tv</t>
   </si>
   <si>
-    <t>only the companie benefit from the ads not the children, i.e ads are only to earn money</t>
-  </si>
-  <si>
-    <t>Ads on TV should be replace by educative content</t>
-  </si>
-  <si>
     <t>The parent might be always forced to buy the things from the ads especially when they see their children unhappy</t>
   </si>
   <si>
@@ -98,6 +92,24 @@
   </si>
   <si>
     <t xml:space="preserve">Children in this age should do another activities like reading or playing with friends rather watching TV. </t>
+  </si>
+  <si>
+    <t>Pros Vs. Cons.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>only the companies benefit from the ads not the children, i.e ads are only to earn money</t>
+  </si>
+  <si>
+    <t>Ads on TV should be replaced by educative content</t>
   </si>
 </sst>
 </file>
@@ -120,18 +132,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -142,6 +148,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,11 +176,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,177 +465,238 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="7" max="7" width="39.109375" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
+    <col min="8" max="8" width="8.88671875" style="1"/>
     <col min="11" max="11" width="8.6640625" customWidth="1"/>
     <col min="12" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="H1" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L1" s="1"/>
+      <c r="J1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="3"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="1">
         <v>0</v>
+      </c>
+      <c r="J2" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <v>2</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>3</v>
+      </c>
+      <c r="J5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>6</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>7</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>9</v>
+      </c>
+      <c r="J11" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" s="2">
+        <v>23</v>
+      </c>
+      <c r="H12" s="1">
         <v>10</v>
+      </c>
+      <c r="J12" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H13" s="2">
+        <v>24</v>
+      </c>
+      <c r="H13" s="1">
         <v>11</v>
+      </c>
+      <c r="J13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="H14" s="2">
         <v>12</v>
+      </c>
+      <c r="H14" s="1">
+        <v>12</v>
+      </c>
+      <c r="J14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="H15" s="2">
         <v>13</v>
+      </c>
+      <c r="H15" s="1">
+        <v>13</v>
+      </c>
+      <c r="J15" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14</v>
+      </c>
+      <c r="J16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="1">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="H18" s="1">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>17</v>
       </c>
-      <c r="H17" s="2">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="H19" s="1">
+        <v>17</v>
+      </c>
+      <c r="J19" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="2">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="2">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="H20" s="1">
+        <v>18</v>
+      </c>
+      <c r="J20" t="s">
         <v>20</v>
-      </c>
-      <c r="H20" s="2">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
